--- a/biology/Botanique/Eucalyptus_resinifera/Eucalyptus_resinifera.xlsx
+++ b/biology/Botanique/Eucalyptus_resinifera/Eucalyptus_resinifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus resinifera (Acajou rouge quelquefois en français) est une espèce d'eucalyptus commun dans l'est de l'Australie. Son aire de répartition va de Jervis Bay au nord du Queensland dans les forêts sclérophylles préférant les sols d'une fertilité moyenne à élevée.
 Il peut atteindre 45 mètres de hauteur, mais plus généralement il mesure entre 20 et 30 mètres. Son diamètre à hauteur de poitrine va jusqu'à 150 cm.
